--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_2_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_2_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.90000000000045</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,18 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.440050603571772e-16</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.3197979698425045</v>
-      </c>
+        <v>2.135044278125301e-16</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>43.24091257288291</v>
+        <v>48.54583869701901</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[34.450483163101104, 52.03134198266472]</t>
+          <t>[39.512866284888744, 57.57881110914927]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -601,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.641552918091963</v>
+        <v>1.79250031285904</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.415131825941347, 1.8679740102425795]</t>
+          <t>[1.5912371198362703, 1.9937635058818106]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -615,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>62.44644889638563</v>
+        <v>60.92972919956009</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[56.82666223146697, 68.0662355613043]</t>
+          <t>[55.64771353770939, 66.21174486141078]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.39459459459493</v>
+        <v>17.8821621621625</v>
       </c>
       <c r="X2" t="n">
-        <v>17.49729729729761</v>
+        <v>17.08072072072104</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.29189189189225</v>
+        <v>18.68360360360396</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.84000000000013</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,30 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.440050603571772e-16</v>
+        <v>2.135044278125301e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>40.55421206088311</v>
+        <v>46.03541875182044</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[30.691619253029124, 50.416804868737096]</t>
+          <t>[35.83902386822543, 56.231813635415456]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.629000458859927</v>
+        <v>-2.792526803190928</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.8805794501383892, -2.3774214675814647]</t>
+          <t>[-3.018947895341544, -2.5661057110403114]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>59.4055348591465</v>
+        <v>62.61087463266746</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[54.10192649548266, 64.70914322281034]</t>
+          <t>[56.96734552917039, 68.25440373616453]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.556676676676732</v>
+        <v>10.13777777777784</v>
       </c>
       <c r="X3" t="n">
-        <v>8.642162162162212</v>
+        <v>9.315795795795848</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.47119119119125</v>
+        <v>10.95975975975982</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_2_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_2_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.02000000000047</v>
+        <v>25.06000000000048</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.135044278125301e-16</v>
+        <v>2.070345966666958e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.54583869701901</v>
+        <v>48.18868628967638</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[39.512866284888744, 57.57881110914927]</t>
+          <t>[39.63251116454349, 56.744861414809264]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.79250031285904</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5912371198362703, 1.9937635058818106]</t>
+          <t>[1.5283423720166551, 1.9057108589343494]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.92972919956009</v>
+        <v>65.99720301088531</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.64771353770939, 66.21174486141078]</t>
+          <t>[60.71507702077804, 71.27932900099259]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.8821621621625</v>
+        <v>18.21177177177212</v>
       </c>
       <c r="X2" t="n">
-        <v>17.08072072072104</v>
+        <v>17.45921921921955</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.68360360360396</v>
+        <v>18.96432432432469</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.81000000000013</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.135044278125301e-16</v>
+        <v>2.070345966666958e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>46.03541875182044</v>
+        <v>45.09255263350151</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[35.83902386822543, 56.231813635415456]</t>
+          <t>[35.53881549915456, 54.646289767848465]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.792526803190928</v>
+        <v>-1.962316131972003</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.018947895341544, -2.5661057110403114]</t>
+          <t>[-2.176158274558696, -1.7484739893853094]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.61087463266746</v>
+        <v>64.77557726003302</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[56.96734552917039, 68.25440373616453]</t>
+          <t>[59.35628393301313, 70.1948705870529]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.13777777777784</v>
+        <v>7.198798798798849</v>
       </c>
       <c r="X3" t="n">
-        <v>9.315795795795848</v>
+        <v>6.414314314314357</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.95975975975982</v>
+        <v>7.983283283283342</v>
       </c>
     </row>
   </sheetData>
